--- a/MODELES/31214_etab.xlsx
+++ b/MODELES/31214_etab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\pierr\ALIDade\MODELES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Desktop\MODELES202304031600\MODELES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AD22B6-F3DF-43AA-9C6D-3A94CF67EC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB1420E-8FFA-4FCD-B188-BF43DB36B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21168" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,9 +1244,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1272,10 +1269,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1311,9 +1304,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1654,6 +1644,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1689,13 +1686,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2034,320 +2024,320 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22" style="34" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" style="34" customWidth="1"/>
-    <col min="8" max="9" width="9.09765625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" style="34" customWidth="1"/>
-    <col min="11" max="12" width="9.09765625" style="34" customWidth="1"/>
-    <col min="13" max="16384" width="9.09765625" style="34"/>
+    <col min="1" max="1" width="9.09765625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="22" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" style="31" customWidth="1"/>
+    <col min="8" max="9" width="9.09765625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="18.69921875" style="31" customWidth="1"/>
+    <col min="11" max="12" width="9.09765625" style="31" customWidth="1"/>
+    <col min="13" max="16384" width="9.09765625" style="31"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:10" ht="31.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="35"/>
-      <c r="B5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="J6" s="55"/>
+      <c r="A6" s="33"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="J7" s="55"/>
+      <c r="A7" s="33"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:10" ht="23.3" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="36"/>
-      <c r="B8" s="106" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:10" ht="23.3" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="36"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="J9" s="55"/>
+      <c r="A9" s="33"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="1:10" ht="50.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="101" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="J11" s="55"/>
+      <c r="A11" s="33"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="37"/>
-      <c r="B12" s="109" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D20" s="54"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="52"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="52"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="52"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
     </row>
     <row r="27" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:10" ht="18.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="100"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="99"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="96"/>
     </row>
     <row r="29" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:10" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43" t="e">
-        <f>RECAPNOTES!D50</f>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40" t="e">
+        <f>RECAPNOTES!D82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="43" t="e">
-        <f>RECAPNOTES!E50</f>
+      <c r="F30" s="40" t="e">
+        <f>RECAPNOTES!E82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="43" t="e">
-        <f>RECAPNOTES!F50</f>
+      <c r="G30" s="40" t="e">
+        <f>RECAPNOTES!F82</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="43">
-        <f>RECAPNOTES!D51</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="43">
-        <f>RECAPNOTES!E51</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="43">
-        <f>RECAPNOTES!F51</f>
+      <c r="D31" s="42"/>
+      <c r="E31" s="40">
+        <f>RECAPNOTES!D83</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="40">
+        <f>RECAPNOTES!E83</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="40">
+        <f>RECAPNOTES!F83</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="43">
-        <f>RECAPNOTES!D52</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="43">
-        <f>RECAPNOTES!E52</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="43">
-        <f>RECAPNOTES!F52</f>
+      <c r="D32" s="44"/>
+      <c r="E32" s="40">
+        <f>RECAPNOTES!D84</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="40">
+        <f>RECAPNOTES!E84</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="40">
+        <f>RECAPNOTES!F84</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="112" t="s">
+      <c r="B34" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="96"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="96"/>
     </row>
     <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
     </row>
     <row r="39" spans="2:10" ht="17.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="96"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="38"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="47" t="s">
         <v>19</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="40"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="47" t="s">
         <v>21</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="40"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2375,11 +2365,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2393,103 +2383,103 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
     </row>
     <row r="3" spans="1:6" ht="18.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
     </row>
     <row r="4" spans="1:6" ht="18.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="124">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="121">
         <f>'Page de garde'!E28</f>
         <v>0</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:6" ht="18.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="119" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
     </row>
     <row r="6" spans="1:6" ht="18.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="119">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="116">
         <f>'Page de garde'!F37</f>
         <v>0</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="121"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
     </row>
     <row r="7" spans="1:6" ht="19.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="116" t="str">
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="113" t="str">
         <f>'Page de garde'!B12</f>
         <v>SESSION 2023</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="115"/>
     </row>
     <row r="8" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="73" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="72" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="76" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="75" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2497,9 +2487,9 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="72"/>
     </row>
     <row r="11" spans="1:6" ht="18.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -2511,374 +2501,630 @@
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="80" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="26"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="27"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="27"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="27"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="27"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="27"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="27"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="27"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="25"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="27"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="27"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="27"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="27"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="25"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="27"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="27"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="27"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="27"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="25"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="27"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="27"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="25"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="25"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="27"/>
+      <c r="F46" s="25"/>
     </row>
     <row r="47" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="25"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="27"/>
+      <c r="F47" s="25"/>
     </row>
     <row r="48" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="25"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="27"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="25"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="27"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="41" t="s">
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="23"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="23"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="23"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="23"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="23"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="23"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="23"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="23"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="25"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="23"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="23"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="23"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="23"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="23"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="23"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="23"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="23"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="23"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="23"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="23"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="25"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="23"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="23"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="25"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="23"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="25"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="23"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="25"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="23"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="25"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="23"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="25"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="23"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="25"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="23"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="25"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="23"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="25"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="23"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="26"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="57" t="e">
-        <f>AVERAGE(D12:D49)</f>
+      <c r="D82" s="54" t="e">
+        <f>AVERAGE(D12:D81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="58" t="e">
-        <f>AVERAGE(E12:E49)</f>
+      <c r="E82" s="55" t="e">
+        <f>AVERAGE(E12:E81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="59" t="e">
-        <f>AVERAGE(F12:F49)</f>
+      <c r="F82" s="56" t="e">
+        <f>AVERAGE(F12:F81)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="44" t="s">
+    <row r="83" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="26"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="60">
-        <f>MIN(D12:D49)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="61">
-        <f>MIN(E12:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="62">
-        <f>MIN(F12:F49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="46" t="s">
+      <c r="D83" s="57">
+        <f>MIN(D12:D81)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="58">
+        <f>MIN(E12:E81)</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="59">
+        <f>MIN(F12:F81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="27"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="63">
-        <f>MAX(D12:D49)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="64">
-        <f>MAX(E12:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="65">
-        <f>MAX(F12:F49)</f>
+      <c r="D84" s="60">
+        <f>MAX(D12:D81)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="61">
+        <f>MAX(E12:E81)</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="62">
+        <f>MAX(F12:F81)</f>
         <v>0</v>
       </c>
     </row>
@@ -2904,10 +3150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2925,1174 +3171,2299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="141"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="135">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="132">
         <f>'Page de garde'!E28</f>
         <v>0</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="87"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="84"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="152" t="str">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="149" t="str">
         <f>RECAPNOTES!D5</f>
         <v xml:space="preserve">Bac Pro MCV option PVOC </v>
       </c>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="87"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="84"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="152">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="149">
         <f>'Page de garde'!F37</f>
         <v>0</v>
       </c>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="87"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="146" t="str">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="143" t="str">
         <f>RECAPNOTES!D7</f>
         <v>SESSION 2023</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="137"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="134"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="144" t="s">
+      <c r="K8" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="142" t="s">
+      <c r="L8" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="149" t="s">
+      <c r="M8" s="146" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="75.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="134"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="23" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="131"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="128"/>
     </row>
     <row r="10" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="93">
+      <c r="A10" s="90">
         <f>RECAPNOTES!A12</f>
         <v>0</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="90">
         <f>RECAPNOTES!B12</f>
         <v>0</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="90">
         <f>RECAPNOTES!C12</f>
         <v>0</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33">
-        <f t="shared" ref="K10:K41" si="0">SUM(E10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="92">
-        <f t="shared" ref="L10:L41" si="1">SUM(K10*5)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="24"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30">
+        <f t="shared" ref="K10:K40" si="0">SUM(E10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="89">
+        <f t="shared" ref="L10:L40" si="1">SUM(K10*5)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="93">
+      <c r="A11" s="90">
         <f>RECAPNOTES!A13</f>
         <v>0</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="90">
         <f>RECAPNOTES!B13</f>
         <v>0</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="90">
         <f>RECAPNOTES!C13</f>
         <v>0</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33">
+      <c r="D11" s="14"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="93">
+      <c r="A12" s="90">
         <f>RECAPNOTES!A14</f>
         <v>0</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="90">
         <f>RECAPNOTES!B14</f>
         <v>0</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="90">
         <f>RECAPNOTES!C14</f>
         <v>0</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33">
+      <c r="D12" s="14"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="92">
+      <c r="L12" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93">
+      <c r="A13" s="90">
         <f>RECAPNOTES!A15</f>
         <v>0</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="90">
         <f>RECAPNOTES!B15</f>
         <v>0</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="90">
         <f>RECAPNOTES!C15</f>
         <v>0</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33">
+      <c r="D13" s="14"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="92">
+      <c r="L13" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="19"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="93">
+      <c r="A14" s="90">
         <f>RECAPNOTES!A16</f>
         <v>0</v>
       </c>
-      <c r="B14" s="93">
+      <c r="B14" s="90">
         <f>RECAPNOTES!B16</f>
         <v>0</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="90">
         <f>RECAPNOTES!C16</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33">
+      <c r="D14" s="14"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="92">
+      <c r="L14" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="19"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="93">
+      <c r="A15" s="90">
         <f>RECAPNOTES!A17</f>
         <v>0</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="90">
         <f>RECAPNOTES!B17</f>
         <v>0</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="90">
         <f>RECAPNOTES!C17</f>
         <v>0</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33">
+      <c r="D15" s="14"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="92">
+      <c r="L15" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="19"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93">
+      <c r="A16" s="90">
         <f>RECAPNOTES!A18</f>
         <v>0</v>
       </c>
-      <c r="B16" s="93">
+      <c r="B16" s="90">
         <f>RECAPNOTES!B18</f>
         <v>0</v>
       </c>
-      <c r="C16" s="93">
+      <c r="C16" s="90">
         <f>RECAPNOTES!C18</f>
         <v>0</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33">
+      <c r="D16" s="14"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="92">
+      <c r="L16" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="93">
+      <c r="A17" s="90">
         <f>RECAPNOTES!A19</f>
         <v>0</v>
       </c>
-      <c r="B17" s="93">
+      <c r="B17" s="90">
         <f>RECAPNOTES!B19</f>
         <v>0</v>
       </c>
-      <c r="C17" s="93">
+      <c r="C17" s="90">
         <f>RECAPNOTES!C19</f>
         <v>0</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33">
+      <c r="D17" s="14"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="92">
+      <c r="L17" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="19"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="93">
+      <c r="A18" s="90">
         <f>RECAPNOTES!A20</f>
         <v>0</v>
       </c>
-      <c r="B18" s="93">
+      <c r="B18" s="90">
         <f>RECAPNOTES!B20</f>
         <v>0</v>
       </c>
-      <c r="C18" s="93">
+      <c r="C18" s="90">
         <f>RECAPNOTES!C20</f>
         <v>0</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33">
+      <c r="D18" s="14"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="92">
+      <c r="L18" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="19"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="93">
+      <c r="A19" s="90">
         <f>RECAPNOTES!A21</f>
         <v>0</v>
       </c>
-      <c r="B19" s="93">
+      <c r="B19" s="90">
         <f>RECAPNOTES!B21</f>
         <v>0</v>
       </c>
-      <c r="C19" s="93">
+      <c r="C19" s="90">
         <f>RECAPNOTES!C21</f>
         <v>0</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33">
+      <c r="D19" s="14"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="92">
+      <c r="L19" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="19"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="93">
+      <c r="A20" s="90">
         <f>RECAPNOTES!A22</f>
         <v>0</v>
       </c>
-      <c r="B20" s="93">
+      <c r="B20" s="90">
         <f>RECAPNOTES!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="93">
+      <c r="C20" s="90">
         <f>RECAPNOTES!C22</f>
         <v>0</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33">
+      <c r="D20" s="14"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="92">
+      <c r="L20" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="19"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="93">
+      <c r="A21" s="90">
         <f>RECAPNOTES!A23</f>
         <v>0</v>
       </c>
-      <c r="B21" s="93">
+      <c r="B21" s="90">
         <f>RECAPNOTES!B23</f>
         <v>0</v>
       </c>
-      <c r="C21" s="93">
+      <c r="C21" s="90">
         <f>RECAPNOTES!C23</f>
         <v>0</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33">
+      <c r="D21" s="14"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="92">
+      <c r="L21" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="19"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93">
+      <c r="A22" s="90">
         <f>RECAPNOTES!A24</f>
         <v>0</v>
       </c>
-      <c r="B22" s="93">
+      <c r="B22" s="90">
         <f>RECAPNOTES!B24</f>
         <v>0</v>
       </c>
-      <c r="C22" s="93">
+      <c r="C22" s="90">
         <f>RECAPNOTES!C24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33">
+      <c r="D22" s="14"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="92">
+      <c r="L22" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="19"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="93">
+      <c r="A23" s="90">
         <f>RECAPNOTES!A25</f>
         <v>0</v>
       </c>
-      <c r="B23" s="93">
+      <c r="B23" s="90">
         <f>RECAPNOTES!B25</f>
         <v>0</v>
       </c>
-      <c r="C23" s="93">
+      <c r="C23" s="90">
         <f>RECAPNOTES!C25</f>
         <v>0</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33">
+      <c r="D23" s="14"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="92">
+      <c r="L23" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="19"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="93">
+      <c r="A24" s="90">
         <f>RECAPNOTES!A26</f>
         <v>0</v>
       </c>
-      <c r="B24" s="93">
+      <c r="B24" s="90">
         <f>RECAPNOTES!B26</f>
         <v>0</v>
       </c>
-      <c r="C24" s="93">
+      <c r="C24" s="90">
         <f>RECAPNOTES!C26</f>
         <v>0</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33">
+      <c r="D24" s="14"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="92">
+      <c r="L24" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="19"/>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="93">
+      <c r="A25" s="90">
         <f>RECAPNOTES!A27</f>
         <v>0</v>
       </c>
-      <c r="B25" s="93">
+      <c r="B25" s="90">
         <f>RECAPNOTES!B27</f>
         <v>0</v>
       </c>
-      <c r="C25" s="93">
+      <c r="C25" s="90">
         <f>RECAPNOTES!C27</f>
         <v>0</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33">
+      <c r="D25" s="14"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="92">
+      <c r="L25" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="19"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="93">
+      <c r="A26" s="90">
         <f>RECAPNOTES!A28</f>
         <v>0</v>
       </c>
-      <c r="B26" s="93">
+      <c r="B26" s="90">
         <f>RECAPNOTES!B28</f>
         <v>0</v>
       </c>
-      <c r="C26" s="93">
+      <c r="C26" s="90">
         <f>RECAPNOTES!C28</f>
         <v>0</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33">
+      <c r="D26" s="14"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="92">
+      <c r="L26" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="19"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93">
+      <c r="A27" s="90">
         <f>RECAPNOTES!A29</f>
         <v>0</v>
       </c>
-      <c r="B27" s="93">
+      <c r="B27" s="90">
         <f>RECAPNOTES!B29</f>
         <v>0</v>
       </c>
-      <c r="C27" s="93">
+      <c r="C27" s="90">
         <f>RECAPNOTES!C29</f>
         <v>0</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33">
+      <c r="D27" s="14"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="92">
+      <c r="L27" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="19"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="93">
+      <c r="A28" s="90">
         <f>RECAPNOTES!A30</f>
         <v>0</v>
       </c>
-      <c r="B28" s="93">
+      <c r="B28" s="90">
         <f>RECAPNOTES!B30</f>
         <v>0</v>
       </c>
-      <c r="C28" s="93">
+      <c r="C28" s="90">
         <f>RECAPNOTES!C30</f>
         <v>0</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33">
+      <c r="D28" s="14"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="92">
+      <c r="L28" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="19"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93">
+      <c r="A29" s="90">
         <f>RECAPNOTES!A31</f>
         <v>0</v>
       </c>
-      <c r="B29" s="93">
+      <c r="B29" s="90">
         <f>RECAPNOTES!B31</f>
         <v>0</v>
       </c>
-      <c r="C29" s="93">
+      <c r="C29" s="90">
         <f>RECAPNOTES!C31</f>
         <v>0</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="33">
+      <c r="D29" s="14"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="92">
+      <c r="L29" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="19"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="93">
+      <c r="A30" s="90">
         <f>RECAPNOTES!A32</f>
         <v>0</v>
       </c>
-      <c r="B30" s="93">
+      <c r="B30" s="90">
         <f>RECAPNOTES!B32</f>
         <v>0</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="90">
         <f>RECAPNOTES!C32</f>
         <v>0</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="33">
+      <c r="D30" s="14"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="92">
+      <c r="L30" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="19"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="93">
+      <c r="A31" s="90">
         <f>RECAPNOTES!A33</f>
         <v>0</v>
       </c>
-      <c r="B31" s="93">
+      <c r="B31" s="90">
         <f>RECAPNOTES!B33</f>
         <v>0</v>
       </c>
-      <c r="C31" s="93">
+      <c r="C31" s="90">
         <f>RECAPNOTES!C33</f>
         <v>0</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="33">
+      <c r="D31" s="14"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="92">
+      <c r="L31" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="19"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93">
+      <c r="A32" s="90">
         <f>RECAPNOTES!A34</f>
         <v>0</v>
       </c>
-      <c r="B32" s="93">
+      <c r="B32" s="90">
         <f>RECAPNOTES!B34</f>
         <v>0</v>
       </c>
-      <c r="C32" s="93">
+      <c r="C32" s="90">
         <f>RECAPNOTES!C34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="33">
+      <c r="D32" s="14"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="92">
+      <c r="L32" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="19"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="93">
+      <c r="A33" s="90">
         <f>RECAPNOTES!A35</f>
         <v>0</v>
       </c>
-      <c r="B33" s="93">
+      <c r="B33" s="90">
         <f>RECAPNOTES!B35</f>
         <v>0</v>
       </c>
-      <c r="C33" s="93">
+      <c r="C33" s="90">
         <f>RECAPNOTES!C35</f>
         <v>0</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33">
+      <c r="D33" s="14"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="92">
+      <c r="L33" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="19"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="93">
+      <c r="A34" s="90">
         <f>RECAPNOTES!A36</f>
         <v>0</v>
       </c>
-      <c r="B34" s="93">
+      <c r="B34" s="90">
         <f>RECAPNOTES!B36</f>
         <v>0</v>
       </c>
-      <c r="C34" s="93">
+      <c r="C34" s="90">
         <f>RECAPNOTES!C36</f>
         <v>0</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="33">
+      <c r="D34" s="14"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="92">
+      <c r="L34" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="19"/>
+      <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93">
+      <c r="A35" s="90">
         <f>RECAPNOTES!A37</f>
         <v>0</v>
       </c>
-      <c r="B35" s="93">
+      <c r="B35" s="90">
         <f>RECAPNOTES!B37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="93">
+      <c r="C35" s="90">
         <f>RECAPNOTES!C37</f>
         <v>0</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="33">
+      <c r="D35" s="14"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="92">
+      <c r="L35" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="19"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="93">
+      <c r="A36" s="90">
         <f>RECAPNOTES!A38</f>
         <v>0</v>
       </c>
-      <c r="B36" s="93">
+      <c r="B36" s="90">
         <f>RECAPNOTES!B38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="93">
+      <c r="C36" s="90">
         <f>RECAPNOTES!C38</f>
         <v>0</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="33">
+      <c r="D36" s="14"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="92">
+      <c r="L36" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="19"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="93">
+      <c r="A37" s="90">
         <f>RECAPNOTES!A39</f>
         <v>0</v>
       </c>
-      <c r="B37" s="93">
+      <c r="B37" s="90">
         <f>RECAPNOTES!B39</f>
         <v>0</v>
       </c>
-      <c r="C37" s="93">
+      <c r="C37" s="90">
         <f>RECAPNOTES!C39</f>
         <v>0</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="33">
+      <c r="D37" s="14"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="92">
+      <c r="L37" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="19"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="93">
+      <c r="A38" s="90">
         <f>RECAPNOTES!A40</f>
         <v>0</v>
       </c>
-      <c r="B38" s="93">
+      <c r="B38" s="90">
         <f>RECAPNOTES!B40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="93">
+      <c r="C38" s="90">
         <f>RECAPNOTES!C40</f>
         <v>0</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="33">
+      <c r="D38" s="14"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="92">
+      <c r="L38" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M38" s="19"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="93">
+      <c r="A39" s="90">
         <f>RECAPNOTES!A41</f>
         <v>0</v>
       </c>
-      <c r="B39" s="93">
+      <c r="B39" s="90">
         <f>RECAPNOTES!B41</f>
         <v>0</v>
       </c>
-      <c r="C39" s="93">
+      <c r="C39" s="90">
         <f>RECAPNOTES!C41</f>
         <v>0</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="33">
+      <c r="D39" s="14"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="92">
+      <c r="L39" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="20"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="93">
-        <f>RECAPNOTES!A42</f>
-        <v>0</v>
-      </c>
-      <c r="B40" s="93">
-        <f>RECAPNOTES!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="93">
-        <f>RECAPNOTES!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="33">
+      <c r="A40" s="90">
+        <f>RECAPNOTES!A74</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="90">
+        <f>RECAPNOTES!B74</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="90">
+        <f>RECAPNOTES!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L40" s="92">
+      <c r="L40" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="19"/>
+      <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="93">
-        <f>RECAPNOTES!A43</f>
-        <v>0</v>
-      </c>
-      <c r="B41" s="93">
-        <f>RECAPNOTES!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="93">
-        <f>RECAPNOTES!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="21"/>
+      <c r="A41" s="90">
+        <f>RECAPNOTES!A75</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="90">
+        <f>RECAPNOTES!B75</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="90">
+        <f>RECAPNOTES!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30">
+        <f t="shared" ref="K41:K79" si="2">SUM(E41:J41)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="89">
+        <f t="shared" ref="L41:L79" si="3">SUM(K41*5)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="18"/>
     </row>
     <row r="42" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="12"/>
+      <c r="A42" s="90">
+        <f>RECAPNOTES!A76</f>
+        <v>0</v>
+      </c>
+      <c r="B42" s="90">
+        <f>RECAPNOTES!B76</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="90">
+        <f>RECAPNOTES!C76</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A43" s="90">
+        <f>RECAPNOTES!A77</f>
+        <v>0</v>
+      </c>
+      <c r="B43" s="90">
+        <f>RECAPNOTES!B77</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="90">
+        <f>RECAPNOTES!C77</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A44" s="90">
+        <f>RECAPNOTES!A78</f>
+        <v>0</v>
+      </c>
+      <c r="B44" s="90">
+        <f>RECAPNOTES!B78</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="90">
+        <f>RECAPNOTES!C78</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A45" s="90">
+        <f>RECAPNOTES!A79</f>
+        <v>0</v>
+      </c>
+      <c r="B45" s="90">
+        <f>RECAPNOTES!B79</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="90">
+        <f>RECAPNOTES!C79</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A46" s="90">
+        <f>RECAPNOTES!A80</f>
+        <v>0</v>
+      </c>
+      <c r="B46" s="90">
+        <f>RECAPNOTES!B80</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="90">
+        <f>RECAPNOTES!C80</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A47" s="90">
+        <f>RECAPNOTES!A81</f>
+        <v>0</v>
+      </c>
+      <c r="B47" s="90">
+        <f>RECAPNOTES!B81</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="90">
+        <f>RECAPNOTES!C81</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="18"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A48" s="90">
+        <f>RECAPNOTES!A82</f>
+        <v>0</v>
+      </c>
+      <c r="B48" s="90">
+        <f>RECAPNOTES!B82</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="90" t="str">
+        <f>RECAPNOTES!C82</f>
+        <v>Moyenne des notes</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="18"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A49" s="90">
+        <f>RECAPNOTES!A83</f>
+        <v>0</v>
+      </c>
+      <c r="B49" s="90">
+        <f>RECAPNOTES!B83</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="90" t="str">
+        <f>RECAPNOTES!C83</f>
+        <v xml:space="preserve">Note la plus basse </v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A50" s="90">
+        <f>RECAPNOTES!A84</f>
+        <v>0</v>
+      </c>
+      <c r="B50" s="90">
+        <f>RECAPNOTES!B84</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="90" t="str">
+        <f>RECAPNOTES!C84</f>
+        <v>Note la plus haute</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A51" s="90">
+        <f>RECAPNOTES!A85</f>
+        <v>0</v>
+      </c>
+      <c r="B51" s="90">
+        <f>RECAPNOTES!B85</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="90">
+        <f>RECAPNOTES!C85</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="52" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A52" s="90">
+        <f>RECAPNOTES!A86</f>
+        <v>0</v>
+      </c>
+      <c r="B52" s="90">
+        <f>RECAPNOTES!B86</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="90">
+        <f>RECAPNOTES!C86</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="18"/>
+    </row>
+    <row r="53" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A53" s="90">
+        <f>RECAPNOTES!A87</f>
+        <v>0</v>
+      </c>
+      <c r="B53" s="90">
+        <f>RECAPNOTES!B87</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="90">
+        <f>RECAPNOTES!C87</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="18"/>
+    </row>
+    <row r="54" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A54" s="90">
+        <f>RECAPNOTES!A88</f>
+        <v>0</v>
+      </c>
+      <c r="B54" s="90">
+        <f>RECAPNOTES!B88</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="90">
+        <f>RECAPNOTES!C88</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A55" s="90">
+        <f>RECAPNOTES!A89</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="90">
+        <f>RECAPNOTES!B89</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="90">
+        <f>RECAPNOTES!C89</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A56" s="90">
+        <f>RECAPNOTES!A90</f>
+        <v>0</v>
+      </c>
+      <c r="B56" s="90">
+        <f>RECAPNOTES!B90</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="90">
+        <f>RECAPNOTES!C90</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="18"/>
+    </row>
+    <row r="57" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A57" s="90">
+        <f>RECAPNOTES!A91</f>
+        <v>0</v>
+      </c>
+      <c r="B57" s="90">
+        <f>RECAPNOTES!B91</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="90">
+        <f>RECAPNOTES!C91</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="18"/>
+    </row>
+    <row r="58" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A58" s="90">
+        <f>RECAPNOTES!A92</f>
+        <v>0</v>
+      </c>
+      <c r="B58" s="90">
+        <f>RECAPNOTES!B92</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="90">
+        <f>RECAPNOTES!C92</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="18"/>
+    </row>
+    <row r="59" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A59" s="90">
+        <f>RECAPNOTES!A93</f>
+        <v>0</v>
+      </c>
+      <c r="B59" s="90">
+        <f>RECAPNOTES!B93</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="90">
+        <f>RECAPNOTES!C93</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="18"/>
+    </row>
+    <row r="60" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A60" s="90">
+        <f>RECAPNOTES!A94</f>
+        <v>0</v>
+      </c>
+      <c r="B60" s="90">
+        <f>RECAPNOTES!B94</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="90">
+        <f>RECAPNOTES!C94</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A61" s="90">
+        <f>RECAPNOTES!A95</f>
+        <v>0</v>
+      </c>
+      <c r="B61" s="90">
+        <f>RECAPNOTES!B95</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="90">
+        <f>RECAPNOTES!C95</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A62" s="90">
+        <f>RECAPNOTES!A96</f>
+        <v>0</v>
+      </c>
+      <c r="B62" s="90">
+        <f>RECAPNOTES!B96</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="90">
+        <f>RECAPNOTES!C96</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="18"/>
+    </row>
+    <row r="63" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A63" s="90">
+        <f>RECAPNOTES!A97</f>
+        <v>0</v>
+      </c>
+      <c r="B63" s="90">
+        <f>RECAPNOTES!B97</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="90">
+        <f>RECAPNOTES!C97</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="18"/>
+    </row>
+    <row r="64" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A64" s="90">
+        <f>RECAPNOTES!A98</f>
+        <v>0</v>
+      </c>
+      <c r="B64" s="90">
+        <f>RECAPNOTES!B98</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="90">
+        <f>RECAPNOTES!C98</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="18"/>
+    </row>
+    <row r="65" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A65" s="90">
+        <f>RECAPNOTES!A99</f>
+        <v>0</v>
+      </c>
+      <c r="B65" s="90">
+        <f>RECAPNOTES!B99</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="90">
+        <f>RECAPNOTES!C99</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="18"/>
+    </row>
+    <row r="66" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A66" s="90">
+        <f>RECAPNOTES!A100</f>
+        <v>0</v>
+      </c>
+      <c r="B66" s="90">
+        <f>RECAPNOTES!B100</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="90">
+        <f>RECAPNOTES!C100</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="18"/>
+    </row>
+    <row r="67" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A67" s="90">
+        <f>RECAPNOTES!A101</f>
+        <v>0</v>
+      </c>
+      <c r="B67" s="90">
+        <f>RECAPNOTES!B101</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="90">
+        <f>RECAPNOTES!C101</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="18"/>
+    </row>
+    <row r="68" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A68" s="90">
+        <f>RECAPNOTES!A102</f>
+        <v>0</v>
+      </c>
+      <c r="B68" s="90">
+        <f>RECAPNOTES!B102</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="90">
+        <f>RECAPNOTES!C102</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="18"/>
+    </row>
+    <row r="69" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A69" s="90">
+        <f>RECAPNOTES!A103</f>
+        <v>0</v>
+      </c>
+      <c r="B69" s="90">
+        <f>RECAPNOTES!B103</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="90">
+        <f>RECAPNOTES!C103</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="18"/>
+    </row>
+    <row r="70" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A70" s="90">
+        <f>RECAPNOTES!A104</f>
+        <v>0</v>
+      </c>
+      <c r="B70" s="90">
+        <f>RECAPNOTES!B104</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="90">
+        <f>RECAPNOTES!C104</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="18"/>
+    </row>
+    <row r="71" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A71" s="90">
+        <f>RECAPNOTES!A105</f>
+        <v>0</v>
+      </c>
+      <c r="B71" s="90">
+        <f>RECAPNOTES!B105</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="90">
+        <f>RECAPNOTES!C105</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="18"/>
+    </row>
+    <row r="72" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A72" s="90">
+        <f>RECAPNOTES!A106</f>
+        <v>0</v>
+      </c>
+      <c r="B72" s="90">
+        <f>RECAPNOTES!B106</f>
+        <v>0</v>
+      </c>
+      <c r="C72" s="90">
+        <f>RECAPNOTES!C106</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="18"/>
+    </row>
+    <row r="73" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A73" s="90">
+        <f>RECAPNOTES!A107</f>
+        <v>0</v>
+      </c>
+      <c r="B73" s="90">
+        <f>RECAPNOTES!B107</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="90">
+        <f>RECAPNOTES!C107</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="14"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="18"/>
+    </row>
+    <row r="74" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A74" s="90">
+        <f>RECAPNOTES!A108</f>
+        <v>0</v>
+      </c>
+      <c r="B74" s="90">
+        <f>RECAPNOTES!B108</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="90">
+        <f>RECAPNOTES!C108</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A75" s="90">
+        <f>RECAPNOTES!A109</f>
+        <v>0</v>
+      </c>
+      <c r="B75" s="90">
+        <f>RECAPNOTES!B109</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="90">
+        <f>RECAPNOTES!C109</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="14"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="18"/>
+    </row>
+    <row r="76" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A76" s="90">
+        <f>RECAPNOTES!A110</f>
+        <v>0</v>
+      </c>
+      <c r="B76" s="90">
+        <f>RECAPNOTES!B110</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="90">
+        <f>RECAPNOTES!C110</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="18"/>
+    </row>
+    <row r="77" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A77" s="90">
+        <f>RECAPNOTES!A111</f>
+        <v>0</v>
+      </c>
+      <c r="B77" s="90">
+        <f>RECAPNOTES!B111</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="90">
+        <f>RECAPNOTES!C111</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="18"/>
+    </row>
+    <row r="78" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A78" s="90">
+        <f>RECAPNOTES!A112</f>
+        <v>0</v>
+      </c>
+      <c r="B78" s="90">
+        <f>RECAPNOTES!B112</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="90">
+        <f>RECAPNOTES!C112</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A79" s="90">
+        <f>RECAPNOTES!A113</f>
+        <v>0</v>
+      </c>
+      <c r="B79" s="90">
+        <f>RECAPNOTES!B113</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="90">
+        <f>RECAPNOTES!C113</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="14"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4111,36 +5482,36 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
+      <formula>"OUI"</formula>
+      <formula>"OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>si+$D$10="OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>"OUI"</formula>
+    </cfRule>
     <cfRule type="expression" priority="12">
       <formula>"OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>"OUI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D79">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>"OUI"</formula>
       <formula>"OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>si+$D$10="OUI"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D41">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>"OUI"</formula>
+    </cfRule>
     <cfRule type="expression" priority="7">
       <formula>"OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>"OUI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
-      <formula>"OUI"</formula>
-      <formula>"OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>si+$D$10="OUI"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K41">
+  <conditionalFormatting sqref="K10:K79">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>0</formula>
       <formula>13.99</formula>

--- a/MODELES/31214_etab.xlsx
+++ b/MODELES/31214_etab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Desktop\MODELES202304031600\MODELES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Desktop\ALIDade\MODELES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB1420E-8FFA-4FCD-B188-BF43DB36B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD24945-6363-4FF0-8DDA-40EEBBF05051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21168" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1477,21 +1477,48 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1499,35 +1526,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1632,6 +1632,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1639,32 +1643,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2040,17 +2023,17 @@
     <row r="4" spans="1:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:10" ht="31.6" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A5" s="32"/>
-      <c r="B5" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="B5" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
@@ -2062,17 +2045,17 @@
     </row>
     <row r="8" spans="1:10" ht="23.3" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="33"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="23.3" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="33"/>
@@ -2084,17 +2067,17 @@
     </row>
     <row r="10" spans="1:10" ht="50.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="100"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
@@ -2102,17 +2085,17 @@
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="34"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="108"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="99"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="48" t="s">
@@ -2168,12 +2151,12 @@
       <c r="C28" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="96"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:10" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2232,17 +2215,17 @@
     </row>
     <row r="33" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="63"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="102"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="63"/>
@@ -2257,25 +2240,25 @@
       <c r="E36" s="63"/>
     </row>
     <row r="37" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="102"/>
     </row>
     <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="63"/>
       <c r="C38" s="64"/>
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
     </row>
     <row r="39" spans="2:10" ht="17.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="63"/>
@@ -2284,17 +2267,17 @@
       <c r="E39" s="63"/>
     </row>
     <row r="40" spans="2:10" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="63"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="96"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="102"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="45" t="s">
@@ -2343,18 +2326,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F34:J34"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="F40:J40"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F34:J34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2369,7 +2352,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2457,8 +2440,8 @@
       <c r="A8" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="70" t="s">
         <v>5</v>
       </c>
@@ -3212,9 +3195,9 @@
         <f>'Page de garde'!E28</f>
         <v>0</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="108"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="83"/>
       <c r="I3" s="83"/>
       <c r="J3" s="83"/>
@@ -3446,11 +3429,11 @@
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K12:K75" si="2">SUM(E12:J12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L12:L75" si="3">SUM(K12*5)</f>
         <v>0</v>
       </c>
       <c r="M12" s="18"/>
@@ -3476,11 +3459,11 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="18"/>
@@ -3506,11 +3489,11 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14" s="18"/>
@@ -3536,11 +3519,11 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="18"/>
@@ -3566,11 +3549,11 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="18"/>
@@ -3596,11 +3579,11 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M17" s="18"/>
@@ -3626,11 +3609,11 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M18" s="18"/>
@@ -3656,11 +3639,11 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="18"/>
@@ -3686,11 +3669,11 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M20" s="18"/>
@@ -3716,11 +3699,11 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M21" s="18"/>
@@ -3746,11 +3729,11 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22" s="18"/>
@@ -3776,11 +3759,11 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
       <c r="K23" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="18"/>
@@ -3806,11 +3789,11 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="18"/>
@@ -3836,11 +3819,11 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M25" s="18"/>
@@ -3866,11 +3849,11 @@
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M26" s="18"/>
@@ -3896,11 +3879,11 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27" s="18"/>
@@ -3926,11 +3909,11 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M28" s="18"/>
@@ -3956,11 +3939,11 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="18"/>
@@ -3986,11 +3969,11 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M30" s="18"/>
@@ -4016,11 +3999,11 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31" s="18"/>
@@ -4046,11 +4029,11 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M32" s="18"/>
@@ -4076,11 +4059,11 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M33" s="18"/>
@@ -4106,11 +4089,11 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M34" s="18"/>
@@ -4136,11 +4119,11 @@
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
       <c r="K35" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M35" s="18"/>
@@ -4166,11 +4149,11 @@
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
       <c r="K36" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M36" s="18"/>
@@ -4196,11 +4179,11 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M37" s="18"/>
@@ -4226,11 +4209,11 @@
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L38" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M38" s="18"/>
@@ -4256,26 +4239,26 @@
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
       <c r="K39" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L39" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90">
-        <f>RECAPNOTES!A74</f>
+        <f>RECAPNOTES!A42</f>
         <v>0</v>
       </c>
       <c r="B40" s="90">
-        <f>RECAPNOTES!B74</f>
+        <f>RECAPNOTES!B42</f>
         <v>0</v>
       </c>
       <c r="C40" s="90">
-        <f>RECAPNOTES!C74</f>
+        <f>RECAPNOTES!C42</f>
         <v>0</v>
       </c>
       <c r="D40" s="14"/>
@@ -4286,26 +4269,26 @@
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
       <c r="K40" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L40" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="90">
-        <f>RECAPNOTES!A75</f>
+        <f>RECAPNOTES!A43</f>
         <v>0</v>
       </c>
       <c r="B41" s="90">
-        <f>RECAPNOTES!B75</f>
+        <f>RECAPNOTES!B43</f>
         <v>0</v>
       </c>
       <c r="C41" s="90">
-        <f>RECAPNOTES!C75</f>
+        <f>RECAPNOTES!C43</f>
         <v>0</v>
       </c>
       <c r="D41" s="14"/>
@@ -4316,26 +4299,26 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="30">
-        <f t="shared" ref="K41:K79" si="2">SUM(E41:J41)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L41" s="89">
-        <f t="shared" ref="L41:L79" si="3">SUM(K41*5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="1:13" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="90">
-        <f>RECAPNOTES!A76</f>
+        <f>RECAPNOTES!A44</f>
         <v>0</v>
       </c>
       <c r="B42" s="90">
-        <f>RECAPNOTES!B76</f>
+        <f>RECAPNOTES!B44</f>
         <v>0</v>
       </c>
       <c r="C42" s="90">
-        <f>RECAPNOTES!C76</f>
+        <f>RECAPNOTES!C44</f>
         <v>0</v>
       </c>
       <c r="D42" s="14"/>
@@ -4357,15 +4340,15 @@
     </row>
     <row r="43" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A43" s="90">
-        <f>RECAPNOTES!A77</f>
+        <f>RECAPNOTES!A45</f>
         <v>0</v>
       </c>
       <c r="B43" s="90">
-        <f>RECAPNOTES!B77</f>
+        <f>RECAPNOTES!B45</f>
         <v>0</v>
       </c>
       <c r="C43" s="90">
-        <f>RECAPNOTES!C77</f>
+        <f>RECAPNOTES!C45</f>
         <v>0</v>
       </c>
       <c r="D43" s="14"/>
@@ -4387,15 +4370,15 @@
     </row>
     <row r="44" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A44" s="90">
-        <f>RECAPNOTES!A78</f>
+        <f>RECAPNOTES!A46</f>
         <v>0</v>
       </c>
       <c r="B44" s="90">
-        <f>RECAPNOTES!B78</f>
+        <f>RECAPNOTES!B46</f>
         <v>0</v>
       </c>
       <c r="C44" s="90">
-        <f>RECAPNOTES!C78</f>
+        <f>RECAPNOTES!C46</f>
         <v>0</v>
       </c>
       <c r="D44" s="14"/>
@@ -4417,15 +4400,15 @@
     </row>
     <row r="45" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A45" s="90">
-        <f>RECAPNOTES!A79</f>
+        <f>RECAPNOTES!A47</f>
         <v>0</v>
       </c>
       <c r="B45" s="90">
-        <f>RECAPNOTES!B79</f>
+        <f>RECAPNOTES!B47</f>
         <v>0</v>
       </c>
       <c r="C45" s="90">
-        <f>RECAPNOTES!C79</f>
+        <f>RECAPNOTES!C47</f>
         <v>0</v>
       </c>
       <c r="D45" s="14"/>
@@ -4447,15 +4430,15 @@
     </row>
     <row r="46" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A46" s="90">
-        <f>RECAPNOTES!A80</f>
+        <f>RECAPNOTES!A48</f>
         <v>0</v>
       </c>
       <c r="B46" s="90">
-        <f>RECAPNOTES!B80</f>
+        <f>RECAPNOTES!B48</f>
         <v>0</v>
       </c>
       <c r="C46" s="90">
-        <f>RECAPNOTES!C80</f>
+        <f>RECAPNOTES!C48</f>
         <v>0</v>
       </c>
       <c r="D46" s="14"/>
@@ -4477,15 +4460,15 @@
     </row>
     <row r="47" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A47" s="90">
-        <f>RECAPNOTES!A81</f>
+        <f>RECAPNOTES!A49</f>
         <v>0</v>
       </c>
       <c r="B47" s="90">
-        <f>RECAPNOTES!B81</f>
+        <f>RECAPNOTES!B49</f>
         <v>0</v>
       </c>
       <c r="C47" s="90">
-        <f>RECAPNOTES!C81</f>
+        <f>RECAPNOTES!C49</f>
         <v>0</v>
       </c>
       <c r="D47" s="14"/>
@@ -4507,16 +4490,16 @@
     </row>
     <row r="48" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A48" s="90">
-        <f>RECAPNOTES!A82</f>
+        <f>RECAPNOTES!A50</f>
         <v>0</v>
       </c>
       <c r="B48" s="90">
-        <f>RECAPNOTES!B82</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="90" t="str">
-        <f>RECAPNOTES!C82</f>
-        <v>Moyenne des notes</v>
+        <f>RECAPNOTES!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="90">
+        <f>RECAPNOTES!C50</f>
+        <v>0</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="29"/>
@@ -4537,16 +4520,16 @@
     </row>
     <row r="49" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A49" s="90">
-        <f>RECAPNOTES!A83</f>
+        <f>RECAPNOTES!A51</f>
         <v>0</v>
       </c>
       <c r="B49" s="90">
-        <f>RECAPNOTES!B83</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="90" t="str">
-        <f>RECAPNOTES!C83</f>
-        <v xml:space="preserve">Note la plus basse </v>
+        <f>RECAPNOTES!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="90">
+        <f>RECAPNOTES!C51</f>
+        <v>0</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="29"/>
@@ -4567,16 +4550,16 @@
     </row>
     <row r="50" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A50" s="90">
-        <f>RECAPNOTES!A84</f>
+        <f>RECAPNOTES!A52</f>
         <v>0</v>
       </c>
       <c r="B50" s="90">
-        <f>RECAPNOTES!B84</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="90" t="str">
-        <f>RECAPNOTES!C84</f>
-        <v>Note la plus haute</v>
+        <f>RECAPNOTES!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="90">
+        <f>RECAPNOTES!C52</f>
+        <v>0</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="29"/>
@@ -4597,15 +4580,15 @@
     </row>
     <row r="51" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A51" s="90">
-        <f>RECAPNOTES!A85</f>
+        <f>RECAPNOTES!A53</f>
         <v>0</v>
       </c>
       <c r="B51" s="90">
-        <f>RECAPNOTES!B85</f>
+        <f>RECAPNOTES!B53</f>
         <v>0</v>
       </c>
       <c r="C51" s="90">
-        <f>RECAPNOTES!C85</f>
+        <f>RECAPNOTES!C53</f>
         <v>0</v>
       </c>
       <c r="D51" s="14"/>
@@ -4627,15 +4610,15 @@
     </row>
     <row r="52" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A52" s="90">
-        <f>RECAPNOTES!A86</f>
+        <f>RECAPNOTES!A54</f>
         <v>0</v>
       </c>
       <c r="B52" s="90">
-        <f>RECAPNOTES!B86</f>
+        <f>RECAPNOTES!B54</f>
         <v>0</v>
       </c>
       <c r="C52" s="90">
-        <f>RECAPNOTES!C86</f>
+        <f>RECAPNOTES!C54</f>
         <v>0</v>
       </c>
       <c r="D52" s="14"/>
@@ -4657,15 +4640,15 @@
     </row>
     <row r="53" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A53" s="90">
-        <f>RECAPNOTES!A87</f>
+        <f>RECAPNOTES!A55</f>
         <v>0</v>
       </c>
       <c r="B53" s="90">
-        <f>RECAPNOTES!B87</f>
+        <f>RECAPNOTES!B55</f>
         <v>0</v>
       </c>
       <c r="C53" s="90">
-        <f>RECAPNOTES!C87</f>
+        <f>RECAPNOTES!C55</f>
         <v>0</v>
       </c>
       <c r="D53" s="14"/>
@@ -4687,15 +4670,15 @@
     </row>
     <row r="54" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A54" s="90">
-        <f>RECAPNOTES!A88</f>
+        <f>RECAPNOTES!A56</f>
         <v>0</v>
       </c>
       <c r="B54" s="90">
-        <f>RECAPNOTES!B88</f>
+        <f>RECAPNOTES!B56</f>
         <v>0</v>
       </c>
       <c r="C54" s="90">
-        <f>RECAPNOTES!C88</f>
+        <f>RECAPNOTES!C56</f>
         <v>0</v>
       </c>
       <c r="D54" s="14"/>
@@ -4717,15 +4700,15 @@
     </row>
     <row r="55" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A55" s="90">
-        <f>RECAPNOTES!A89</f>
+        <f>RECAPNOTES!A57</f>
         <v>0</v>
       </c>
       <c r="B55" s="90">
-        <f>RECAPNOTES!B89</f>
+        <f>RECAPNOTES!B57</f>
         <v>0</v>
       </c>
       <c r="C55" s="90">
-        <f>RECAPNOTES!C89</f>
+        <f>RECAPNOTES!C57</f>
         <v>0</v>
       </c>
       <c r="D55" s="14"/>
@@ -4747,15 +4730,15 @@
     </row>
     <row r="56" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A56" s="90">
-        <f>RECAPNOTES!A90</f>
+        <f>RECAPNOTES!A58</f>
         <v>0</v>
       </c>
       <c r="B56" s="90">
-        <f>RECAPNOTES!B90</f>
+        <f>RECAPNOTES!B58</f>
         <v>0</v>
       </c>
       <c r="C56" s="90">
-        <f>RECAPNOTES!C90</f>
+        <f>RECAPNOTES!C58</f>
         <v>0</v>
       </c>
       <c r="D56" s="14"/>
@@ -4777,15 +4760,15 @@
     </row>
     <row r="57" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A57" s="90">
-        <f>RECAPNOTES!A91</f>
+        <f>RECAPNOTES!A59</f>
         <v>0</v>
       </c>
       <c r="B57" s="90">
-        <f>RECAPNOTES!B91</f>
+        <f>RECAPNOTES!B59</f>
         <v>0</v>
       </c>
       <c r="C57" s="90">
-        <f>RECAPNOTES!C91</f>
+        <f>RECAPNOTES!C59</f>
         <v>0</v>
       </c>
       <c r="D57" s="14"/>
@@ -4807,15 +4790,15 @@
     </row>
     <row r="58" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A58" s="90">
-        <f>RECAPNOTES!A92</f>
+        <f>RECAPNOTES!A60</f>
         <v>0</v>
       </c>
       <c r="B58" s="90">
-        <f>RECAPNOTES!B92</f>
+        <f>RECAPNOTES!B60</f>
         <v>0</v>
       </c>
       <c r="C58" s="90">
-        <f>RECAPNOTES!C92</f>
+        <f>RECAPNOTES!C60</f>
         <v>0</v>
       </c>
       <c r="D58" s="14"/>
@@ -4837,15 +4820,15 @@
     </row>
     <row r="59" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A59" s="90">
-        <f>RECAPNOTES!A93</f>
+        <f>RECAPNOTES!A61</f>
         <v>0</v>
       </c>
       <c r="B59" s="90">
-        <f>RECAPNOTES!B93</f>
+        <f>RECAPNOTES!B61</f>
         <v>0</v>
       </c>
       <c r="C59" s="90">
-        <f>RECAPNOTES!C93</f>
+        <f>RECAPNOTES!C61</f>
         <v>0</v>
       </c>
       <c r="D59" s="14"/>
@@ -4867,15 +4850,15 @@
     </row>
     <row r="60" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A60" s="90">
-        <f>RECAPNOTES!A94</f>
+        <f>RECAPNOTES!A62</f>
         <v>0</v>
       </c>
       <c r="B60" s="90">
-        <f>RECAPNOTES!B94</f>
+        <f>RECAPNOTES!B62</f>
         <v>0</v>
       </c>
       <c r="C60" s="90">
-        <f>RECAPNOTES!C94</f>
+        <f>RECAPNOTES!C62</f>
         <v>0</v>
       </c>
       <c r="D60" s="14"/>
@@ -4897,15 +4880,15 @@
     </row>
     <row r="61" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A61" s="90">
-        <f>RECAPNOTES!A95</f>
+        <f>RECAPNOTES!A63</f>
         <v>0</v>
       </c>
       <c r="B61" s="90">
-        <f>RECAPNOTES!B95</f>
+        <f>RECAPNOTES!B63</f>
         <v>0</v>
       </c>
       <c r="C61" s="90">
-        <f>RECAPNOTES!C95</f>
+        <f>RECAPNOTES!C63</f>
         <v>0</v>
       </c>
       <c r="D61" s="14"/>
@@ -4927,15 +4910,15 @@
     </row>
     <row r="62" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A62" s="90">
-        <f>RECAPNOTES!A96</f>
+        <f>RECAPNOTES!A64</f>
         <v>0</v>
       </c>
       <c r="B62" s="90">
-        <f>RECAPNOTES!B96</f>
+        <f>RECAPNOTES!B64</f>
         <v>0</v>
       </c>
       <c r="C62" s="90">
-        <f>RECAPNOTES!C96</f>
+        <f>RECAPNOTES!C64</f>
         <v>0</v>
       </c>
       <c r="D62" s="14"/>
@@ -4957,15 +4940,15 @@
     </row>
     <row r="63" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A63" s="90">
-        <f>RECAPNOTES!A97</f>
+        <f>RECAPNOTES!A65</f>
         <v>0</v>
       </c>
       <c r="B63" s="90">
-        <f>RECAPNOTES!B97</f>
+        <f>RECAPNOTES!B65</f>
         <v>0</v>
       </c>
       <c r="C63" s="90">
-        <f>RECAPNOTES!C97</f>
+        <f>RECAPNOTES!C65</f>
         <v>0</v>
       </c>
       <c r="D63" s="14"/>
@@ -4987,15 +4970,15 @@
     </row>
     <row r="64" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A64" s="90">
-        <f>RECAPNOTES!A98</f>
+        <f>RECAPNOTES!A66</f>
         <v>0</v>
       </c>
       <c r="B64" s="90">
-        <f>RECAPNOTES!B98</f>
+        <f>RECAPNOTES!B66</f>
         <v>0</v>
       </c>
       <c r="C64" s="90">
-        <f>RECAPNOTES!C98</f>
+        <f>RECAPNOTES!C66</f>
         <v>0</v>
       </c>
       <c r="D64" s="14"/>
@@ -5017,15 +5000,15 @@
     </row>
     <row r="65" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A65" s="90">
-        <f>RECAPNOTES!A99</f>
+        <f>RECAPNOTES!A67</f>
         <v>0</v>
       </c>
       <c r="B65" s="90">
-        <f>RECAPNOTES!B99</f>
+        <f>RECAPNOTES!B67</f>
         <v>0</v>
       </c>
       <c r="C65" s="90">
-        <f>RECAPNOTES!C99</f>
+        <f>RECAPNOTES!C67</f>
         <v>0</v>
       </c>
       <c r="D65" s="14"/>
@@ -5047,15 +5030,15 @@
     </row>
     <row r="66" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A66" s="90">
-        <f>RECAPNOTES!A100</f>
+        <f>RECAPNOTES!A68</f>
         <v>0</v>
       </c>
       <c r="B66" s="90">
-        <f>RECAPNOTES!B100</f>
+        <f>RECAPNOTES!B68</f>
         <v>0</v>
       </c>
       <c r="C66" s="90">
-        <f>RECAPNOTES!C100</f>
+        <f>RECAPNOTES!C68</f>
         <v>0</v>
       </c>
       <c r="D66" s="14"/>
@@ -5077,15 +5060,15 @@
     </row>
     <row r="67" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A67" s="90">
-        <f>RECAPNOTES!A101</f>
+        <f>RECAPNOTES!A69</f>
         <v>0</v>
       </c>
       <c r="B67" s="90">
-        <f>RECAPNOTES!B101</f>
+        <f>RECAPNOTES!B69</f>
         <v>0</v>
       </c>
       <c r="C67" s="90">
-        <f>RECAPNOTES!C101</f>
+        <f>RECAPNOTES!C69</f>
         <v>0</v>
       </c>
       <c r="D67" s="14"/>
@@ -5107,15 +5090,15 @@
     </row>
     <row r="68" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A68" s="90">
-        <f>RECAPNOTES!A102</f>
+        <f>RECAPNOTES!A70</f>
         <v>0</v>
       </c>
       <c r="B68" s="90">
-        <f>RECAPNOTES!B102</f>
+        <f>RECAPNOTES!B70</f>
         <v>0</v>
       </c>
       <c r="C68" s="90">
-        <f>RECAPNOTES!C102</f>
+        <f>RECAPNOTES!C70</f>
         <v>0</v>
       </c>
       <c r="D68" s="14"/>
@@ -5137,15 +5120,15 @@
     </row>
     <row r="69" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A69" s="90">
-        <f>RECAPNOTES!A103</f>
+        <f>RECAPNOTES!A71</f>
         <v>0</v>
       </c>
       <c r="B69" s="90">
-        <f>RECAPNOTES!B103</f>
+        <f>RECAPNOTES!B71</f>
         <v>0</v>
       </c>
       <c r="C69" s="90">
-        <f>RECAPNOTES!C103</f>
+        <f>RECAPNOTES!C71</f>
         <v>0</v>
       </c>
       <c r="D69" s="14"/>
@@ -5167,15 +5150,15 @@
     </row>
     <row r="70" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A70" s="90">
-        <f>RECAPNOTES!A104</f>
+        <f>RECAPNOTES!A72</f>
         <v>0</v>
       </c>
       <c r="B70" s="90">
-        <f>RECAPNOTES!B104</f>
+        <f>RECAPNOTES!B72</f>
         <v>0</v>
       </c>
       <c r="C70" s="90">
-        <f>RECAPNOTES!C104</f>
+        <f>RECAPNOTES!C72</f>
         <v>0</v>
       </c>
       <c r="D70" s="14"/>
@@ -5197,15 +5180,15 @@
     </row>
     <row r="71" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A71" s="90">
-        <f>RECAPNOTES!A105</f>
+        <f>RECAPNOTES!A73</f>
         <v>0</v>
       </c>
       <c r="B71" s="90">
-        <f>RECAPNOTES!B105</f>
+        <f>RECAPNOTES!B73</f>
         <v>0</v>
       </c>
       <c r="C71" s="90">
-        <f>RECAPNOTES!C105</f>
+        <f>RECAPNOTES!C73</f>
         <v>0</v>
       </c>
       <c r="D71" s="14"/>
@@ -5227,15 +5210,15 @@
     </row>
     <row r="72" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A72" s="90">
-        <f>RECAPNOTES!A106</f>
+        <f>RECAPNOTES!A74</f>
         <v>0</v>
       </c>
       <c r="B72" s="90">
-        <f>RECAPNOTES!B106</f>
+        <f>RECAPNOTES!B74</f>
         <v>0</v>
       </c>
       <c r="C72" s="90">
-        <f>RECAPNOTES!C106</f>
+        <f>RECAPNOTES!C74</f>
         <v>0</v>
       </c>
       <c r="D72" s="14"/>
@@ -5257,15 +5240,15 @@
     </row>
     <row r="73" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A73" s="90">
-        <f>RECAPNOTES!A107</f>
+        <f>RECAPNOTES!A75</f>
         <v>0</v>
       </c>
       <c r="B73" s="90">
-        <f>RECAPNOTES!B107</f>
+        <f>RECAPNOTES!B75</f>
         <v>0</v>
       </c>
       <c r="C73" s="90">
-        <f>RECAPNOTES!C107</f>
+        <f>RECAPNOTES!C75</f>
         <v>0</v>
       </c>
       <c r="D73" s="14"/>
@@ -5287,15 +5270,15 @@
     </row>
     <row r="74" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A74" s="90">
-        <f>RECAPNOTES!A108</f>
+        <f>RECAPNOTES!A76</f>
         <v>0</v>
       </c>
       <c r="B74" s="90">
-        <f>RECAPNOTES!B108</f>
+        <f>RECAPNOTES!B76</f>
         <v>0</v>
       </c>
       <c r="C74" s="90">
-        <f>RECAPNOTES!C108</f>
+        <f>RECAPNOTES!C76</f>
         <v>0</v>
       </c>
       <c r="D74" s="14"/>
@@ -5317,15 +5300,15 @@
     </row>
     <row r="75" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A75" s="90">
-        <f>RECAPNOTES!A109</f>
+        <f>RECAPNOTES!A77</f>
         <v>0</v>
       </c>
       <c r="B75" s="90">
-        <f>RECAPNOTES!B109</f>
+        <f>RECAPNOTES!B77</f>
         <v>0</v>
       </c>
       <c r="C75" s="90">
-        <f>RECAPNOTES!C109</f>
+        <f>RECAPNOTES!C77</f>
         <v>0</v>
       </c>
       <c r="D75" s="14"/>
@@ -5347,15 +5330,15 @@
     </row>
     <row r="76" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A76" s="90">
-        <f>RECAPNOTES!A110</f>
+        <f>RECAPNOTES!A78</f>
         <v>0</v>
       </c>
       <c r="B76" s="90">
-        <f>RECAPNOTES!B110</f>
+        <f>RECAPNOTES!B78</f>
         <v>0</v>
       </c>
       <c r="C76" s="90">
-        <f>RECAPNOTES!C110</f>
+        <f>RECAPNOTES!C78</f>
         <v>0</v>
       </c>
       <c r="D76" s="14"/>
@@ -5366,26 +5349,26 @@
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
       <c r="K76" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K76:K79" si="4">SUM(E76:J76)</f>
         <v>0</v>
       </c>
       <c r="L76" s="89">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L76:L79" si="5">SUM(K76*5)</f>
         <v>0</v>
       </c>
       <c r="M76" s="18"/>
     </row>
     <row r="77" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A77" s="90">
-        <f>RECAPNOTES!A111</f>
+        <f>RECAPNOTES!A79</f>
         <v>0</v>
       </c>
       <c r="B77" s="90">
-        <f>RECAPNOTES!B111</f>
+        <f>RECAPNOTES!B79</f>
         <v>0</v>
       </c>
       <c r="C77" s="90">
-        <f>RECAPNOTES!C111</f>
+        <f>RECAPNOTES!C79</f>
         <v>0</v>
       </c>
       <c r="D77" s="14"/>
@@ -5396,26 +5379,26 @@
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L77" s="89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M77" s="18"/>
     </row>
     <row r="78" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A78" s="90">
-        <f>RECAPNOTES!A112</f>
+        <f>RECAPNOTES!A80</f>
         <v>0</v>
       </c>
       <c r="B78" s="90">
-        <f>RECAPNOTES!B112</f>
+        <f>RECAPNOTES!B80</f>
         <v>0</v>
       </c>
       <c r="C78" s="90">
-        <f>RECAPNOTES!C112</f>
+        <f>RECAPNOTES!C80</f>
         <v>0</v>
       </c>
       <c r="D78" s="14"/>
@@ -5426,26 +5409,26 @@
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L78" s="89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M78" s="18"/>
     </row>
     <row r="79" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
-      <c r="A79" s="90">
-        <f>RECAPNOTES!A113</f>
-        <v>0</v>
-      </c>
-      <c r="B79" s="90">
-        <f>RECAPNOTES!B113</f>
-        <v>0</v>
-      </c>
-      <c r="C79" s="90">
-        <f>RECAPNOTES!C113</f>
+      <c r="A79" s="150">
+        <f>RECAPNOTES!A81</f>
+        <v>0</v>
+      </c>
+      <c r="B79" s="150">
+        <f>RECAPNOTES!B81</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="150">
+        <f>RECAPNOTES!C81</f>
         <v>0</v>
       </c>
       <c r="D79" s="14"/>
@@ -5456,11 +5439,11 @@
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
       <c r="K79" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L79" s="89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M79" s="18"/>
@@ -5481,22 +5464,7 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D4:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
-      <formula>"OUI"</formula>
-      <formula>"OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>si+$D$10="OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>"OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12">
-      <formula>"OUI"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D79">
+  <conditionalFormatting sqref="D10:D79">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>"OUI"</formula>
       <formula>"OUI"</formula>
